--- a/www/IndicatorsPerCountry/Brazil_CopperProduction_TerritorialRef_1960_2012_CCode_76.xlsx
+++ b/www/IndicatorsPerCountry/Brazil_CopperProduction_TerritorialRef_1960_2012_CCode_76.xlsx
@@ -123,13 +123,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Brazil_CopperProduction_TerritorialRef_1960_2012_CCode_76.xlsx
+++ b/www/IndicatorsPerCountry/Brazil_CopperProduction_TerritorialRef_1960_2012_CCode_76.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="59">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,61 +39,121 @@
     <t>0</t>
   </si>
   <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>9.9</t>
-  </si>
-  <si>
-    <t>9.3</t>
-  </si>
-  <si>
-    <t>11.5</t>
-  </si>
-  <si>
-    <t>4.2</t>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>4.5</t>
   </si>
   <si>
     <t>3.4</t>
   </si>
   <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.3</t>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>1.9</t>
   </si>
   <si>
     <t>0.1</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>24.5</t>
+  </si>
+  <si>
+    <t>32.1</t>
+  </si>
+  <si>
+    <t>35.2</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>40.2</t>
+  </si>
+  <si>
+    <t>40.3</t>
+  </si>
+  <si>
+    <t>44.8</t>
+  </si>
+  <si>
+    <t>44.4</t>
+  </si>
+  <si>
+    <t>36.5</t>
+  </si>
+  <si>
+    <t>37.9</t>
+  </si>
+  <si>
+    <t>39.8</t>
+  </si>
+  <si>
+    <t>43.396</t>
+  </si>
+  <si>
+    <t>39.673</t>
+  </si>
+  <si>
+    <t>46.203</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>34.446</t>
+  </si>
+  <si>
+    <t>31.371</t>
+  </si>
+  <si>
+    <t>31.786</t>
+  </si>
+  <si>
+    <t>30.111</t>
+  </si>
+  <si>
+    <t>30.1</t>
+  </si>
+  <si>
+    <t>26.275</t>
+  </si>
+  <si>
+    <t>103.153</t>
+  </si>
+  <si>
+    <t>133.325</t>
+  </si>
+  <si>
+    <t>147.836</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>222.095</t>
+  </si>
+  <si>
+    <t>218.192</t>
+  </si>
+  <si>
+    <t>220.948</t>
+  </si>
+  <si>
+    <t>221.05</t>
+  </si>
+  <si>
+    <t>223.141</t>
   </si>
   <si>
     <t>Description</t>
@@ -4138,7 +4198,7 @@
         <v>1959.0</v>
       </c>
       <c r="E233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234">
@@ -4155,7 +4215,7 @@
         <v>1960.0</v>
       </c>
       <c r="E234" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235">
@@ -4172,7 +4232,7 @@
         <v>1961.0</v>
       </c>
       <c r="E235" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236">
@@ -4189,7 +4249,7 @@
         <v>1962.0</v>
       </c>
       <c r="E236" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237">
@@ -4206,7 +4266,7 @@
         <v>1963.0</v>
       </c>
       <c r="E237" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238">
@@ -4223,7 +4283,7 @@
         <v>1964.0</v>
       </c>
       <c r="E238" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239">
@@ -4240,7 +4300,7 @@
         <v>1965.0</v>
       </c>
       <c r="E239" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240">
@@ -4257,7 +4317,7 @@
         <v>1966.0</v>
       </c>
       <c r="E240" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241">
@@ -4274,7 +4334,7 @@
         <v>1967.0</v>
       </c>
       <c r="E241" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242">
@@ -4291,7 +4351,7 @@
         <v>1968.0</v>
       </c>
       <c r="E242" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243">
@@ -4308,7 +4368,7 @@
         <v>1969.0</v>
       </c>
       <c r="E243" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244">
@@ -4325,7 +4385,7 @@
         <v>1970.0</v>
       </c>
       <c r="E244" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="245">
@@ -4342,7 +4402,7 @@
         <v>1971.0</v>
       </c>
       <c r="E245" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246">
@@ -4359,7 +4419,7 @@
         <v>1972.0</v>
       </c>
       <c r="E246" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247">
@@ -4376,7 +4436,7 @@
         <v>1973.0</v>
       </c>
       <c r="E247" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248">
@@ -4393,7 +4453,7 @@
         <v>1974.0</v>
       </c>
       <c r="E248" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249">
@@ -4410,7 +4470,7 @@
         <v>1975.0</v>
       </c>
       <c r="E249" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250">
@@ -4427,7 +4487,7 @@
         <v>1976.0</v>
       </c>
       <c r="E250" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251">
@@ -4444,7 +4504,7 @@
         <v>1977.0</v>
       </c>
       <c r="E251" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252">
@@ -4461,7 +4521,7 @@
         <v>1978.0</v>
       </c>
       <c r="E252" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253">
@@ -4478,7 +4538,7 @@
         <v>1979.0</v>
       </c>
       <c r="E253" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254">
@@ -4495,7 +4555,7 @@
         <v>1980.0</v>
       </c>
       <c r="E254" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="255">
@@ -4512,7 +4572,7 @@
         <v>1981.0</v>
       </c>
       <c r="E255" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="256">
@@ -4529,7 +4589,7 @@
         <v>1982.0</v>
       </c>
       <c r="E256" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="257">
@@ -4546,7 +4606,7 @@
         <v>1983.0</v>
       </c>
       <c r="E257" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="258">
@@ -4563,7 +4623,7 @@
         <v>1984.0</v>
       </c>
       <c r="E258" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="259">
@@ -4580,7 +4640,7 @@
         <v>1985.0</v>
       </c>
       <c r="E259" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="260">
@@ -4597,7 +4657,7 @@
         <v>1986.0</v>
       </c>
       <c r="E260" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="261">
@@ -4614,7 +4674,7 @@
         <v>1987.0</v>
       </c>
       <c r="E261" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="262">
@@ -4631,7 +4691,7 @@
         <v>1988.0</v>
       </c>
       <c r="E262" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="263">
@@ -4648,7 +4708,7 @@
         <v>1989.0</v>
       </c>
       <c r="E263" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="264">
@@ -4665,7 +4725,7 @@
         <v>1990.0</v>
       </c>
       <c r="E264" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="265">
@@ -4682,7 +4742,7 @@
         <v>1991.0</v>
       </c>
       <c r="E265" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="266">
@@ -4699,7 +4759,7 @@
         <v>1992.0</v>
       </c>
       <c r="E266" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="267">
@@ -4716,7 +4776,7 @@
         <v>1993.0</v>
       </c>
       <c r="E267" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="268">
@@ -4733,7 +4793,7 @@
         <v>1994.0</v>
       </c>
       <c r="E268" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="269">
@@ -4750,7 +4810,7 @@
         <v>1995.0</v>
       </c>
       <c r="E269" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="270">
@@ -4767,7 +4827,7 @@
         <v>1996.0</v>
       </c>
       <c r="E270" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="271">
@@ -4784,7 +4844,7 @@
         <v>1997.0</v>
       </c>
       <c r="E271" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="272">
@@ -4801,7 +4861,7 @@
         <v>1998.0</v>
       </c>
       <c r="E272" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="273">
@@ -4818,7 +4878,7 @@
         <v>1999.0</v>
       </c>
       <c r="E273" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="274">
@@ -4835,7 +4895,7 @@
         <v>2000.0</v>
       </c>
       <c r="E274" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="275">
@@ -4852,7 +4912,7 @@
         <v>2001.0</v>
       </c>
       <c r="E275" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="276">
@@ -4869,7 +4929,7 @@
         <v>2002.0</v>
       </c>
       <c r="E276" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="277">
@@ -4886,7 +4946,7 @@
         <v>2003.0</v>
       </c>
       <c r="E277" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="278">
@@ -4903,7 +4963,7 @@
         <v>2004.0</v>
       </c>
       <c r="E278" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="279">
@@ -4920,7 +4980,7 @@
         <v>2005.0</v>
       </c>
       <c r="E279" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="280">
@@ -4937,7 +4997,7 @@
         <v>2006.0</v>
       </c>
       <c r="E280" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="281">
@@ -4954,7 +5014,7 @@
         <v>2007.0</v>
       </c>
       <c r="E281" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="282">
@@ -4971,7 +5031,7 @@
         <v>2008.0</v>
       </c>
       <c r="E282" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="283">
@@ -4988,7 +5048,7 @@
         <v>2009.0</v>
       </c>
       <c r="E283" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="284">
@@ -5005,7 +5065,7 @@
         <v>2010.0</v>
       </c>
       <c r="E284" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="285">
@@ -5022,7 +5082,7 @@
         <v>2011.0</v>
       </c>
       <c r="E285" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="286">
@@ -5039,7 +5099,7 @@
         <v>2012.0</v>
       </c>
       <c r="E286" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5057,50 +5117,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
